--- a/outputs-r202/f__Bifidobacteriaceae.xlsx
+++ b/outputs-r202/f__Bifidobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>g__Bifidobacterium</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -617,6 +632,11 @@
         <v>0.7578073131989903</v>
       </c>
       <c r="L4" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>g__Bifidobacterium</t>
         </is>
